--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2072,7 +2072,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2072,7 +2069,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3862,10 +3859,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3889,13 +3886,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3903,13 +3900,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3943,7 +3940,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4013,13 +4010,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4027,10 +4024,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4053,13 +4050,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4110,7 +4107,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4145,10 +4142,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4177,7 +4174,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4230,7 +4227,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4265,10 +4262,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4291,19 +4288,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4352,7 +4349,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4373,10 +4370,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4387,10 +4384,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4413,13 +4410,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4470,7 +4467,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4505,10 +4502,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4537,7 +4534,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4590,7 +4587,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4625,10 +4622,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4654,65 +4651,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4733,10 +4730,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4747,10 +4744,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4773,16 +4770,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4832,7 +4829,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4853,10 +4850,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4867,10 +4864,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4896,65 +4893,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4975,10 +4972,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4989,10 +4986,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5015,19 +5012,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5076,7 +5073,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5097,10 +5094,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5111,10 +5108,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5137,19 +5134,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5198,7 +5195,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5219,10 +5216,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5233,10 +5230,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5259,19 +5256,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5320,7 +5317,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5341,10 +5338,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5355,13 +5352,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5395,7 +5392,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5405,7 +5402,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5465,13 +5462,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5479,14 +5476,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5508,16 +5505,16 @@
         <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5542,14 +5539,14 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5566,7 +5563,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>92</v>
@@ -5581,30 +5578,30 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5627,19 +5624,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5688,7 +5685,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5703,19 +5700,19 @@
         <v>170</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5723,10 +5720,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5749,16 +5746,16 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5808,7 +5805,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5829,13 +5826,13 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5843,14 +5840,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5869,19 +5866,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5930,7 +5927,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5945,19 +5942,19 @@
         <v>170</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5965,14 +5962,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5991,19 +5988,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6052,7 +6049,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6067,19 +6064,19 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6087,10 +6084,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6113,16 +6110,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6172,7 +6169,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6193,13 +6190,13 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6207,10 +6204,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6233,19 +6230,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6294,7 +6291,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6309,19 +6306,19 @@
         <v>170</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6329,10 +6326,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6355,19 +6352,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6416,7 +6413,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6425,7 +6422,7 @@
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6434,27 +6431,27 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6480,16 +6477,16 @@
         <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6514,14 +6511,14 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6538,7 +6535,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6547,7 +6544,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6562,7 +6559,7 @@
         <v>106</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6573,14 +6570,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6602,16 +6599,16 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6636,14 +6633,14 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6660,7 +6657,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6678,27 +6675,27 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>399</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6721,19 +6718,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6782,7 +6779,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6803,10 +6800,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6817,10 +6814,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6846,13 +6843,13 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6878,14 +6875,14 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6902,7 +6899,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6920,27 +6917,27 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6966,16 +6963,16 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7000,14 +6997,14 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7024,7 +7021,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7045,10 +7042,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7059,10 +7056,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7085,16 +7082,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7144,7 +7141,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7162,27 +7159,27 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>435</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7205,16 +7202,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7264,7 +7261,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7282,27 +7279,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7325,19 +7322,19 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7386,7 +7383,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7398,19 +7395,19 @@
         <v>104</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7421,10 +7418,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7447,13 +7444,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7504,7 +7501,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7539,10 +7536,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7571,7 +7568,7 @@
         <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>143</v>
@@ -7624,7 +7621,7 @@
         <v>146</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7659,14 +7656,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7688,10 +7685,10 @@
         <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7746,7 +7743,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7781,10 +7778,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7807,16 +7804,16 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7866,7 +7863,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7875,22 +7872,22 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AJ48" t="s" s="2">
+      <c r="AK48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7901,10 +7898,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7927,16 +7924,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7986,7 +7983,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7995,22 +7992,22 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="AN49" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8021,10 +8018,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8050,16 +8047,16 @@
         <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8087,11 +8084,11 @@
         <v>119</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8108,7 +8105,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8126,13 +8123,13 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8143,10 +8140,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8172,16 +8169,16 @@
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8206,14 +8203,14 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8230,7 +8227,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8248,13 +8245,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8265,10 +8262,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8291,19 +8288,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8352,7 +8349,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8364,19 +8361,19 @@
         <v>104</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8387,10 +8384,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8413,16 +8410,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8472,7 +8469,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8493,10 +8490,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8507,10 +8504,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8533,16 +8530,16 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8592,7 +8589,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8613,10 +8610,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8627,10 +8624,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8653,16 +8650,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8712,7 +8709,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8733,10 +8730,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8747,10 +8744,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8773,19 +8770,19 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8834,7 +8831,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8855,10 +8852,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8869,10 +8866,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8895,13 +8892,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8952,7 +8949,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8987,10 +8984,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9019,7 +9016,7 @@
         <v>141</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>143</v>
@@ -9072,7 +9069,7 @@
         <v>146</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9107,14 +9104,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9136,10 +9133,10 @@
         <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9194,7 +9191,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9229,10 +9226,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9258,16 +9255,16 @@
         <v>198</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="O60" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9292,14 +9289,14 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9316,7 +9313,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>92</v>
@@ -9334,16 +9331,16 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9351,10 +9348,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9377,19 +9374,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>533</v>
-      </c>
       <c r="O61" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9438,7 +9435,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9456,27 +9453,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9502,16 +9499,16 @@
         <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>538</v>
-      </c>
       <c r="O62" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9536,14 +9533,14 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9560,7 +9557,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9569,7 +9566,7 @@
         <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>105</v>
@@ -9584,7 +9581,7 @@
         <v>106</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9595,14 +9592,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9624,16 +9621,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9658,14 +9655,14 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9682,7 +9679,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9700,27 +9697,27 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>399</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9746,16 +9743,16 @@
         <v>83</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="N64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O64" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9804,7 +9801,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9825,10 +9822,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="543">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -3859,10 +3862,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3886,13 +3889,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3900,13 +3903,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3940,7 +3943,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4010,13 +4013,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4024,10 +4027,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4050,13 +4053,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4107,7 +4110,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4142,10 +4145,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4174,7 +4177,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4227,7 +4230,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4262,10 +4265,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4273,13 +4276,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4288,19 +4291,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4349,7 +4352,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4370,10 +4373,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4384,10 +4387,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4410,13 +4413,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4467,7 +4470,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4502,10 +4505,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4534,7 +4537,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4587,7 +4590,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4622,10 +4625,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4633,13 +4636,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4651,23 +4654,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4709,7 +4712,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4730,10 +4733,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4744,10 +4747,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4770,16 +4773,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4829,7 +4832,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4850,10 +4853,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4864,10 +4867,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4875,13 +4878,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4893,23 +4896,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -4951,7 +4954,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4972,10 +4975,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4986,10 +4989,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5012,19 +5015,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5073,7 +5076,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5094,10 +5097,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5108,10 +5111,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5134,19 +5137,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5195,7 +5198,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5216,10 +5219,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5230,10 +5233,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5256,19 +5259,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5317,7 +5320,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5338,10 +5341,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5352,13 +5355,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5392,7 +5395,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5402,7 +5405,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5462,13 +5465,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5476,14 +5479,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5505,16 +5508,16 @@
         <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5539,13 +5542,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5563,7 +5566,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>92</v>
@@ -5578,30 +5581,30 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5624,19 +5627,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5685,7 +5688,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5700,19 +5703,19 @@
         <v>170</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5720,10 +5723,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5746,16 +5749,16 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5805,7 +5808,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5826,13 +5829,13 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5840,14 +5843,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5866,19 +5869,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5927,7 +5930,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5942,19 +5945,19 @@
         <v>170</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5962,14 +5965,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5988,19 +5991,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6049,7 +6052,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6064,19 +6067,19 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6084,10 +6087,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6110,16 +6113,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6169,7 +6172,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6190,13 +6193,13 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6204,10 +6207,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6230,19 +6233,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6291,7 +6294,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6306,19 +6309,19 @@
         <v>170</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6326,10 +6329,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6352,19 +6355,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6413,7 +6416,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6422,7 +6425,7 @@
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6431,27 +6434,27 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6477,16 +6480,16 @@
         <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6511,13 +6514,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6535,7 +6538,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6544,7 +6547,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6559,7 +6562,7 @@
         <v>106</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6570,14 +6573,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6599,16 +6602,16 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6633,13 +6636,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6657,7 +6660,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6675,27 +6678,27 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6718,19 +6721,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6779,7 +6782,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6800,10 +6803,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6814,10 +6817,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6843,13 +6846,13 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6875,13 +6878,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6899,7 +6902,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6917,27 +6920,27 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6963,16 +6966,16 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6997,13 +7000,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7021,7 +7024,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7042,10 +7045,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7056,10 +7059,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7082,16 +7085,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7141,7 +7144,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7159,27 +7162,27 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7202,16 +7205,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7261,7 +7264,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7279,27 +7282,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7322,19 +7325,19 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7383,7 +7386,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7395,7 +7398,7 @@
         <v>104</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7404,10 +7407,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7418,10 +7421,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7444,13 +7447,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7501,7 +7504,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7536,10 +7539,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7568,7 +7571,7 @@
         <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>143</v>
@@ -7621,7 +7624,7 @@
         <v>146</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7656,14 +7659,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7685,10 +7688,10 @@
         <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7743,7 +7746,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7778,10 +7781,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7804,16 +7807,16 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7863,7 +7866,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7872,10 +7875,10 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -7884,10 +7887,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7898,10 +7901,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7924,16 +7927,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7983,7 +7986,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7992,10 +7995,10 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8004,10 +8007,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8018,10 +8021,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8047,16 +8050,16 @@
         <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8084,10 +8087,10 @@
         <v>119</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8105,7 +8108,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8123,13 +8126,13 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8140,10 +8143,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8169,16 +8172,16 @@
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8203,13 +8206,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8227,7 +8230,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8245,13 +8248,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8262,10 +8265,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8288,19 +8291,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8349,7 +8352,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8361,7 +8364,7 @@
         <v>104</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8370,10 +8373,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8384,10 +8387,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8410,16 +8413,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8469,7 +8472,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8490,10 +8493,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8504,10 +8507,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8530,16 +8533,16 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8589,7 +8592,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8610,10 +8613,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8624,10 +8627,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8650,16 +8653,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8709,7 +8712,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8730,10 +8733,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8744,10 +8747,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8770,19 +8773,19 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8831,7 +8834,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8852,10 +8855,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8866,10 +8869,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8892,13 +8895,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8949,7 +8952,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8984,10 +8987,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9016,7 +9019,7 @@
         <v>141</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>143</v>
@@ -9069,7 +9072,7 @@
         <v>146</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9104,14 +9107,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9133,10 +9136,10 @@
         <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9191,7 +9194,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9226,10 +9229,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9255,16 +9258,16 @@
         <v>198</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9289,13 +9292,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9313,7 +9316,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>92</v>
@@ -9331,16 +9334,16 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9348,10 +9351,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9374,19 +9377,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9435,7 +9438,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9453,27 +9456,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9499,16 +9502,16 @@
         <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9533,13 +9536,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9557,7 +9560,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9566,7 +9569,7 @@
         <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>105</v>
@@ -9581,7 +9584,7 @@
         <v>106</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9592,14 +9595,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9621,16 +9624,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9655,13 +9658,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9679,7 +9682,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9697,27 +9700,27 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9743,16 +9746,16 @@
         <v>83</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9801,7 +9804,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9822,10 +9825,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-social-personal-details.xlsx
+++ b/output/StructureDefinition-cls-l1-social-personal-details.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
